--- a/asset/example.xlsx
+++ b/asset/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyeonwoo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunwoo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F146B0B-4DBB-A048-9420-B6BAB7B9B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CBEE07-2488-4840-9815-A932728EC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>소속</t>
   </si>
   <si>
-    <t>직위</t>
-  </si>
-  <si>
     <t>직급</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>인사 마스터 기준(현재일 기준)</t>
-  </si>
-  <si>
-    <t>부서발령일</t>
   </si>
   <si>
     <t>승진일</t>
@@ -115,6 +109,14 @@
   </si>
   <si>
     <t>소속이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입사일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직위</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,14 +149,19 @@
       <b/>
       <sz val="10"/>
       <name val="맑은고딕"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="맑은고딕"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -234,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +264,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,7 +683,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -682,7 +692,7 @@
     <col min="19" max="19" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48">
+    <row r="1" spans="1:19" ht="42">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,50 +705,50 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="S1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -749,53 +759,53 @@
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>12345</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
